--- a/datamining/final_data/sorted1978_nltk.xlsx
+++ b/datamining/final_data/sorted1978_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:MY2"/>
+  <dimension ref="A1:LO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,849 +442,849 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>book</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>review</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>children</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>education</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>seeds</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>sowing</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>students</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>perspective</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>sowing</t>
+          <t>child</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>seeds</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>intellectual</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>iq</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>perspective</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>development</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>some</t>
+          <t>intelligence</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>suggestions</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>elementary-school</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>intellectual</t>
+          <t>creativity</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>creatively</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>early</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>young</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>abilities</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>search</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>iq</t>
+          <t>disadvantaged</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>intelligence</t>
+          <t>stanley</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>educational</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>suggestions</t>
+          <t>goertzel</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>elementary-school</t>
+          <t>utopia</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>recent</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>search</t>
+          <t>related</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>minority-students</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>disadvantaged</t>
+          <t>different</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>creatively</t>
+          <t>mind</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>culturally</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>stanley</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>women</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>abilities</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>culturally</t>
+          <t>app</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>different</t>
+          <t>educational-opportunity</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>equal</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>minority-students</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>eminence</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>intellectually</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>utopia</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>mind</t>
+          <t>identifying</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>goertzel</t>
+          <t>superior</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>arrogance</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>ye</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>aggression</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>related</t>
+          <t>dare</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>hope</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>equal</t>
+          <t>advances</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>identifying</t>
+          <t>reflections</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>educational-opportunity</t>
+          <t>thought</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>superior</t>
+          <t>learners</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>app</t>
+          <t>academically</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>elementary</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>eminence</t>
+          <t>acceleration</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>vernon</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>aggression</t>
+          <t>hartmann</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>intellectually</t>
+          <t>opera</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>learners</t>
+          <t>genius</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>reflections</t>
+          <t>comparison</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>ye</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>bright</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>comparison</t>
+          <t>youths</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>vernon</t>
+          <t>talent</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>academically</t>
+          <t>future</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>genius</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>dw</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>at</t>
+          <t>aspects</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>arrogance</t>
+          <t>preschoolers</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>or</t>
+          <t>examinations</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>acceleration</t>
+          <t>eminent</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>talent</t>
+          <t>prepare</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>opera</t>
+          <t>ch</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>dw</t>
+          <t>wc</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>hartmann</t>
+          <t>solano</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>solano</t>
+          <t>usoe-task-force</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>wc</t>
+          <t>samples</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>ch</t>
+          <t>lutterjohn</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>bright</t>
+          <t>tests</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>concern</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>preschoolers</t>
+          <t>report</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>aspects</t>
+          <t>metamorphic</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>future</t>
+          <t>cooperation</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>thought</t>
+          <t>sex-role</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>advances</t>
+          <t>key</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>concern</t>
+          <t>artist</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>youths</t>
+          <t>involvement</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>their</t>
+          <t>career-education</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>eminent</t>
+          <t>scanning</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>cooperation</t>
+          <t>advantages</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>decisive</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>decisive</t>
+          <t>high-school</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>advantages</t>
+          <t>environmental</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>high-school</t>
+          <t>factors</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
+          <t>stereotyping</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
           <t>fo</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>henson</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>thoughts</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>piaget</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>handicapping</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>compounding</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>mainstreaming</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>career-education</t>
-        </is>
-      </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>henson</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>usoe-task-force</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>report</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>discontent</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>insights</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>experts</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>react</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>divine</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>imagination</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>spacks</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>behavior</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>disadvantaged-children</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>potential</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>correlates</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>teacher-assessment</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>freeing</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>womens</t>
-        </is>
-      </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>disadvantaged-children</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
-        <is>
-          <t>insights</t>
-        </is>
-      </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>teacher-assessment</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
-        <is>
-          <t>samples</t>
-        </is>
-      </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>behavior</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>divine</t>
-        </is>
-      </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>discontent</t>
-        </is>
-      </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>involvement</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>environmental</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>scanning</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>key</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>metamorphic</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>artist</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>stereotyping</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>experts</t>
-        </is>
-      </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>react</t>
+          <t>ziv</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>lutterjohn</t>
+          <t>counseling</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>tests</t>
+          <t>soi</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>compounding</t>
+          <t>presidents</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>factors</t>
+          <t>use</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>handicapping</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
+          <t>handicapped</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
           <t>message</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>handicapped</t>
-        </is>
-      </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>prepare</t>
+          <t>proposed</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>examinations</t>
+          <t>black</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>catskills</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>presidents</t>
+          <t>updated</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>spacks</t>
+          <t>saturday</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>counseling</t>
+          <t>legal</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>imagination</t>
+          <t>handling</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>educators</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>ziv</t>
+          <t>seminars</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>soi</t>
+          <t>standard</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>prediction</t>
+          <t>advocacy</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>khatena</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>proposed</t>
+          <t>1/4</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>catskills</t>
+          <t>gifted-talented</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>saturday</t>
+          <t>century</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>seminars</t>
+          <t>maria</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>updated</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>centering</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>again</t>
+          <t>activities</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>dare</t>
+          <t>feminine</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>hope</t>
+          <t>image</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>nationwide</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>sex-role</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>is</t>
+          <t>training</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>warren</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
+          <t>biography</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>kramer</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>montessori</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>childs</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>raise</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>jacobs</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>examining</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
           <t>entering</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
-        <is>
-          <t>examining</t>
-        </is>
-      </c>
-      <c r="FI1" s="1" t="inlineStr">
-        <is>
-          <t>correlates</t>
-        </is>
-      </c>
-      <c r="FJ1" s="1" t="inlineStr">
-        <is>
-          <t>piaget</t>
-        </is>
-      </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>college</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
-        <is>
-          <t>thoughts</t>
-        </is>
-      </c>
-      <c r="FM1" s="1" t="inlineStr">
-        <is>
-          <t>nationwide</t>
-        </is>
-      </c>
-      <c r="FN1" s="1" t="inlineStr">
-        <is>
-          <t>century</t>
-        </is>
-      </c>
-      <c r="FO1" s="1" t="inlineStr">
-        <is>
-          <t>advocacy</t>
-        </is>
-      </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>.2</t>
@@ -1292,707 +1292,707 @@
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>1/4</t>
+          <t>possibility</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
+          <t>minority-group</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
           <t>ability</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>birth-order</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>family-size</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
-        <is>
-          <t>legal</t>
-        </is>
-      </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>standard</t>
+          <t>promise</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>biography</t>
+          <t>overview</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>kramer</t>
+          <t>studies</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>maria</t>
+          <t>toward</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>student-attitudes</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>special</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>montessori</t>
+          <t>females</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>toward</t>
+          <t>commentary</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>overview</t>
+          <t>programming</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>studies</t>
+          <t>marks</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>handling</t>
+          <t>innovation</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>educators</t>
+          <t>pupils</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>programming</t>
+          <t>radical</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>khatena</t>
+          <t>jhu</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>student-attitudes</t>
+          <t>role</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>females</t>
+          <t>minority</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>commentary</t>
+          <t>quota</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>solution</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>image</t>
+          <t>system</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>warren</t>
+          <t>viable</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>history</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>feminine</t>
+          <t>synthesis</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>literature</t>
+          <t>learnings</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>activities</t>
+          <t>current</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>centering</t>
+          <t>growth</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>gifted-talented</t>
+          <t>pilon</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>synthesis</t>
+          <t>arts</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>viable</t>
+          <t>raudsepp</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>learnings</t>
+          <t>creative-productive</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>current</t>
+          <t>language</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>minority-group</t>
+          <t>teaching</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>possibility</t>
+          <t>non-productive</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>promise</t>
+          <t>gp</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>minority</t>
+          <t>games</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>quota</t>
+          <t>sex-roles</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>solution</t>
+          <t>versus</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>hough</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>breakdown</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>expectations</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>consciousness</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>radical</t>
+          <t>jaynes</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>jhu</t>
+          <t>origins</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>innovation</t>
+          <t>test-performance</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>versus</t>
+          <t>test</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>sex-roles</t>
+          <t>mastery</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>non-productive</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>creative-productive</t>
+          <t>1965-1976</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>marks</t>
+          <t>career</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>pupils</t>
+          <t>bicameral</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>teaching</t>
+          <t>socioeconomic-status</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>expectations</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>1965-1976</t>
+          <t>primary</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>productive</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>model</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>pilon</t>
+          <t>study</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>career</t>
+          <t>given</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>socioeconomic-status</t>
+          <t>bruch-morse</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>test-performance</t>
+          <t>initial</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>arts</t>
+          <t>developing</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>mastery</t>
+          <t>human</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>relationship</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>readiness</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>primary</t>
+          <t>effectiveness</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>games</t>
+          <t>self-directed</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>mackinnon</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>gp</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>growth</t>
+          <t>dispel</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>hough</t>
+          <t>myths</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>raudsepp</t>
+          <t>persistent</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>effectiveness</t>
+          <t>looks</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>bicameral</t>
+          <t>minds</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>research</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>developing</t>
+          <t>texas</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>origins</t>
+          <t>turning</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>jaynes</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>consciousness</t>
+          <t>50-year</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>breakdown</t>
+          <t>jc</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>mackinnon</t>
+          <t>george</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>george</t>
+          <t>evaluation</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>jc</t>
+          <t>ray</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>50-year</t>
+          <t>social</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>myths</t>
+          <t>forms</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
+          <t>myth</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>maladjustment</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>leads</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>screening</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>revised</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>referrals</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
           <t>top-scoring</t>
         </is>
       </c>
-      <c r="JB1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>giftedness</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>familial</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>visual-field</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>usage</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>information-processing</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>indicator</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>hemispheric</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>regarding</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>observations</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>influence</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>achievement</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>characteristics</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>cognitive</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
         <is>
           <t>contestants</t>
         </is>
       </c>
-      <c r="JC1" s="1" t="inlineStr">
-        <is>
-          <t>cognitive</t>
-        </is>
-      </c>
-      <c r="JD1" s="1" t="inlineStr">
-        <is>
-          <t>characteristics</t>
-        </is>
-      </c>
-      <c r="JE1" s="1" t="inlineStr">
-        <is>
-          <t>persistent</t>
-        </is>
-      </c>
-      <c r="JF1" s="1" t="inlineStr">
-        <is>
-          <t>dispel</t>
-        </is>
-      </c>
-      <c r="JG1" s="1" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="JH1" s="1" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="JI1" s="1" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="JJ1" s="1" t="inlineStr">
-        <is>
-          <t>under</t>
-        </is>
-      </c>
-      <c r="JK1" s="1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="JL1" s="1" t="inlineStr">
-        <is>
-          <t>productive</t>
-        </is>
-      </c>
-      <c r="JM1" s="1" t="inlineStr">
-        <is>
-          <t>bruch-morse</t>
-        </is>
-      </c>
-      <c r="JN1" s="1" t="inlineStr">
-        <is>
-          <t>familial</t>
-        </is>
-      </c>
-      <c r="JO1" s="1" t="inlineStr">
-        <is>
-          <t>achievement</t>
-        </is>
-      </c>
-      <c r="JP1" s="1" t="inlineStr">
-        <is>
-          <t>study</t>
-        </is>
-      </c>
-      <c r="JQ1" s="1" t="inlineStr">
-        <is>
-          <t>giftedness</t>
-        </is>
-      </c>
-      <c r="JR1" s="1" t="inlineStr">
-        <is>
-          <t>observations</t>
-        </is>
-      </c>
-      <c r="JS1" s="1" t="inlineStr">
-        <is>
-          <t>regarding</t>
-        </is>
-      </c>
-      <c r="JT1" s="1" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="JU1" s="1" t="inlineStr">
-        <is>
-          <t>given</t>
-        </is>
-      </c>
-      <c r="JV1" s="1" t="inlineStr">
-        <is>
-          <t>diagnosis</t>
-        </is>
-      </c>
-      <c r="JW1" s="1" t="inlineStr">
-        <is>
-          <t>evaluation</t>
-        </is>
-      </c>
-      <c r="JX1" s="1" t="inlineStr">
-        <is>
-          <t>influence</t>
-        </is>
-      </c>
-      <c r="JY1" s="1" t="inlineStr">
-        <is>
-          <t>research</t>
-        </is>
-      </c>
-      <c r="JZ1" s="1" t="inlineStr">
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>galton</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>credits</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>gather</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
+        <is>
+          <t>may</t>
+        </is>
+      </c>
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>victorian</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>life</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
+          <t>francis</t>
+        </is>
+      </c>
+      <c r="KJ1" s="1" t="inlineStr">
+        <is>
+          <t>adolescents</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
+        <is>
+          <t>alienation</t>
+        </is>
+      </c>
+      <c r="KL1" s="1" t="inlineStr">
+        <is>
+          <t>cerebral</t>
+        </is>
+      </c>
+      <c r="KM1" s="1" t="inlineStr">
         <is>
           <t>effect</t>
         </is>
       </c>
-      <c r="KA1" s="1" t="inlineStr">
-        <is>
-          <t>adolescents</t>
-        </is>
-      </c>
-      <c r="KB1" s="1" t="inlineStr">
-        <is>
-          <t>alienation</t>
-        </is>
-      </c>
-      <c r="KC1" s="1" t="inlineStr">
-        <is>
-          <t>cerebral</t>
-        </is>
-      </c>
-      <c r="KD1" s="1" t="inlineStr">
-        <is>
-          <t>referrals</t>
-        </is>
-      </c>
-      <c r="KE1" s="1" t="inlineStr">
-        <is>
-          <t>revised</t>
-        </is>
-      </c>
-      <c r="KF1" s="1" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
-      <c r="KG1" s="1" t="inlineStr">
+      <c r="KN1" s="1" t="inlineStr">
         <is>
           <t>functioning</t>
         </is>
       </c>
-      <c r="KH1" s="1" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="KI1" s="1" t="inlineStr">
+      <c r="KO1" s="1" t="inlineStr">
         <is>
           <t>images</t>
         </is>
       </c>
-      <c r="KJ1" s="1" t="inlineStr">
+      <c r="KP1" s="1" t="inlineStr">
         <is>
           <t>specialized</t>
         </is>
       </c>
-      <c r="KK1" s="1" t="inlineStr">
-        <is>
-          <t>screening</t>
-        </is>
-      </c>
-      <c r="KL1" s="1" t="inlineStr">
-        <is>
-          <t>forms</t>
-        </is>
-      </c>
-      <c r="KM1" s="1" t="inlineStr">
-        <is>
-          <t>raise</t>
-        </is>
-      </c>
-      <c r="KN1" s="1" t="inlineStr">
-        <is>
-          <t>victorian</t>
-        </is>
-      </c>
-      <c r="KO1" s="1" t="inlineStr">
-        <is>
-          <t>readiness</t>
-        </is>
-      </c>
-      <c r="KP1" s="1" t="inlineStr">
-        <is>
-          <t>galton</t>
-        </is>
-      </c>
       <c r="KQ1" s="1" t="inlineStr">
         <is>
-          <t>francis</t>
+          <t>forrest</t>
         </is>
       </c>
       <c r="KR1" s="1" t="inlineStr">
         <is>
-          <t>forrest</t>
+          <t>pe</t>
         </is>
       </c>
       <c r="KS1" s="1" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>psychology</t>
         </is>
       </c>
       <c r="KT1" s="1" t="inlineStr">
         <is>
-          <t>self-directed</t>
+          <t>moore</t>
         </is>
       </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
-          <t>relationship</t>
+          <t>rw</t>
         </is>
       </c>
       <c r="KV1" s="1" t="inlineStr">
         <is>
-          <t>life</t>
+          <t>student</t>
         </is>
       </c>
       <c r="KW1" s="1" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>dimensions</t>
         </is>
       </c>
       <c r="KX1" s="1" t="inlineStr">
         <is>
-          <t>childs</t>
+          <t>carey</t>
         </is>
       </c>
       <c r="KY1" s="1" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>adamson</t>
         </is>
       </c>
       <c r="KZ1" s="1" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>df</t>
         </is>
       </c>
       <c r="LA1" s="1" t="inlineStr">
         <is>
-          <t>jacobs</t>
+          <t>boys</t>
         </is>
       </c>
       <c r="LB1" s="1" t="inlineStr">
@@ -2002,247 +2002,67 @@
       </c>
       <c r="LC1" s="1" t="inlineStr">
         <is>
+          <t>counterparts</t>
+        </is>
+      </c>
+      <c r="LD1" s="1" t="inlineStr">
+        <is>
+          <t>evariste</t>
+        </is>
+      </c>
+      <c r="LE1" s="1" t="inlineStr">
+        <is>
+          <t>galois</t>
+        </is>
+      </c>
+      <c r="LF1" s="1" t="inlineStr">
+        <is>
+          <t>marvelous</t>
+        </is>
+      </c>
+      <c r="LG1" s="1" t="inlineStr">
+        <is>
+          <t>modern</t>
+        </is>
+      </c>
+      <c r="LH1" s="1" t="inlineStr">
+        <is>
           <t>thomas</t>
         </is>
       </c>
-      <c r="LD1" s="1" t="inlineStr">
-        <is>
-          <t>modern</t>
-        </is>
-      </c>
-      <c r="LE1" s="1" t="inlineStr">
-        <is>
-          <t>marvelous</t>
-        </is>
-      </c>
-      <c r="LF1" s="1" t="inlineStr">
-        <is>
-          <t>galois</t>
-        </is>
-      </c>
-      <c r="LG1" s="1" t="inlineStr">
-        <is>
-          <t>evariste</t>
-        </is>
-      </c>
-      <c r="LH1" s="1" t="inlineStr">
-        <is>
-          <t>counterparts</t>
-        </is>
-      </c>
       <c r="LI1" s="1" t="inlineStr">
         <is>
-          <t>gather</t>
+          <t>lundy</t>
         </is>
       </c>
       <c r="LJ1" s="1" t="inlineStr">
         <is>
-          <t>boys</t>
+          <t>highly</t>
         </is>
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>credits</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
         <is>
-          <t>looks</t>
+          <t>jg</t>
         </is>
       </c>
       <c r="LM1" s="1" t="inlineStr">
         <is>
-          <t>minds</t>
+          <t>prodigies</t>
         </is>
       </c>
       <c r="LN1" s="1" t="inlineStr">
         <is>
-          <t>ray</t>
+          <t>personalities</t>
         </is>
       </c>
       <c r="LO1" s="1" t="inlineStr">
         <is>
-          <t>turning</t>
-        </is>
-      </c>
-      <c r="LP1" s="1" t="inlineStr">
-        <is>
-          <t>while</t>
-        </is>
-      </c>
-      <c r="LQ1" s="1" t="inlineStr">
-        <is>
-          <t>may</t>
-        </is>
-      </c>
-      <c r="LR1" s="1" t="inlineStr">
-        <is>
-          <t>texas</t>
-        </is>
-      </c>
-      <c r="LS1" s="1" t="inlineStr">
-        <is>
-          <t>jg</t>
-        </is>
-      </c>
-      <c r="LT1" s="1" t="inlineStr">
-        <is>
-          <t>df</t>
-        </is>
-      </c>
-      <c r="LU1" s="1" t="inlineStr">
-        <is>
-          <t>psychology</t>
-        </is>
-      </c>
-      <c r="LV1" s="1" t="inlineStr">
-        <is>
-          <t>prodigies</t>
-        </is>
-      </c>
-      <c r="LW1" s="1" t="inlineStr">
-        <is>
-          <t>programs</t>
-        </is>
-      </c>
-      <c r="LX1" s="1" t="inlineStr">
-        <is>
-          <t>adamson</t>
-        </is>
-      </c>
-      <c r="LY1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="LZ1" s="1" t="inlineStr">
-        <is>
-          <t>pe</t>
-        </is>
-      </c>
-      <c r="MA1" s="1" t="inlineStr">
-        <is>
-          <t>maladjustment</t>
-        </is>
-      </c>
-      <c r="MB1" s="1" t="inlineStr">
-        <is>
-          <t>leads</t>
-        </is>
-      </c>
-      <c r="MC1" s="1" t="inlineStr">
-        <is>
-          <t>dimensions</t>
-        </is>
-      </c>
-      <c r="MD1" s="1" t="inlineStr">
-        <is>
-          <t>highly</t>
-        </is>
-      </c>
-      <c r="ME1" s="1" t="inlineStr">
-        <is>
-          <t>lundy</t>
-        </is>
-      </c>
-      <c r="MF1" s="1" t="inlineStr">
-        <is>
-          <t>moore</t>
-        </is>
-      </c>
-      <c r="MG1" s="1" t="inlineStr">
-        <is>
-          <t>rw</t>
-        </is>
-      </c>
-      <c r="MH1" s="1" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="MI1" s="1" t="inlineStr">
-        <is>
-          <t>social</t>
-        </is>
-      </c>
-      <c r="MJ1" s="1" t="inlineStr">
-        <is>
-          <t>myth</t>
-        </is>
-      </c>
-      <c r="MK1" s="1" t="inlineStr">
-        <is>
-          <t>carey</t>
-        </is>
-      </c>
-      <c r="ML1" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="MM1" s="1" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-      <c r="MN1" s="1" t="inlineStr">
-        <is>
-          <t>visual-field</t>
-        </is>
-      </c>
-      <c r="MO1" s="1" t="inlineStr">
-        <is>
-          <t>information-processing</t>
-        </is>
-      </c>
-      <c r="MP1" s="1" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="MQ1" s="1" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="MR1" s="1" t="inlineStr">
-        <is>
-          <t>usage</t>
-        </is>
-      </c>
-      <c r="MS1" s="1" t="inlineStr">
-        <is>
-          <t>indicator</t>
-        </is>
-      </c>
-      <c r="MT1" s="1" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="MU1" s="1" t="inlineStr">
-        <is>
-          <t>hemispheric</t>
-        </is>
-      </c>
-      <c r="MV1" s="1" t="inlineStr">
-        <is>
           <t>300</t>
-        </is>
-      </c>
-      <c r="MW1" s="1" t="inlineStr">
-        <is>
-          <t>personalities</t>
-        </is>
-      </c>
-      <c r="MX1" s="1" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="MY1" s="1" t="inlineStr">
-        <is>
-          <t>v</t>
         </is>
       </c>
     </row>
@@ -2254,271 +2074,271 @@
         <v>1978</v>
       </c>
       <c r="C2" t="n">
-        <v>3.86</v>
+        <v>3.55</v>
       </c>
       <c r="D2" t="n">
-        <v>3.36</v>
+        <v>2.95</v>
       </c>
       <c r="E2" t="n">
-        <v>3.24</v>
+        <v>2.95</v>
       </c>
       <c r="F2" t="n">
-        <v>2.76</v>
+        <v>2.83</v>
       </c>
       <c r="G2" t="n">
-        <v>2.75</v>
+        <v>2.26</v>
       </c>
       <c r="H2" t="n">
-        <v>2.74</v>
+        <v>2.11</v>
       </c>
       <c r="I2" t="n">
-        <v>2.74</v>
+        <v>1.78</v>
       </c>
       <c r="J2" t="n">
-        <v>2.65</v>
+        <v>1.78</v>
       </c>
       <c r="K2" t="n">
-        <v>2.42</v>
+        <v>1.72</v>
       </c>
       <c r="L2" t="n">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
-        <v>2.02</v>
+        <v>1.44</v>
       </c>
       <c r="N2" t="n">
-        <v>1.7</v>
+        <v>1.42</v>
       </c>
       <c r="O2" t="n">
-        <v>1.7</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>1.63</v>
+        <v>1.22</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.55</v>
+        <v>1.21</v>
       </c>
       <c r="R2" t="n">
-        <v>1.54</v>
+        <v>1.14</v>
       </c>
       <c r="S2" t="n">
-        <v>1.43</v>
+        <v>1.13</v>
       </c>
       <c r="T2" t="n">
-        <v>1.41</v>
+        <v>1.1</v>
       </c>
       <c r="U2" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.26</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1.13</v>
+        <v>0.99</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.13</v>
+        <v>0.97</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.07</v>
+        <v>0.96</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.05</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.03</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.01</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.97</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.96</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.9400000000000002</v>
+        <v>0.87</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.9299999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.9000000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.8700000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.8500000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="BZ2" t="n">
         <v>0.62</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.61</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.61</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.61</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="CN2" t="n">
         <v>0.59</v>
@@ -2527,25 +2347,25 @@
         <v>0.59</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="CW2" t="n">
         <v>0.57</v>
@@ -2569,70 +2389,70 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="DD2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="DP2" t="n">
         <v>0.55</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DQ2" t="n">
         <v>0.55</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="DR2" t="n">
         <v>0.55</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="DS2" t="n">
         <v>0.55</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="DT2" t="n">
         <v>0.55</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="DU2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="DX2" t="n">
         <v>0.54</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DY2" t="n">
         <v>0.54</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>0.52</v>
       </c>
       <c r="DZ2" t="n">
         <v>0.52</v>
@@ -2647,10 +2467,10 @@
         <v>0.52</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="EF2" t="n">
         <v>0.51</v>
@@ -2662,64 +2482,64 @@
         <v>0.51</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="FC2" t="n">
         <v>0.49</v>
@@ -2728,19 +2548,19 @@
         <v>0.49</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="FJ2" t="n">
         <v>0.48</v>
@@ -2764,7 +2584,7 @@
         <v>0.48</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="FR2" t="n">
         <v>0.47</v>
@@ -2776,10 +2596,10 @@
         <v>0.47</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="FW2" t="n">
         <v>0.46</v>
@@ -2800,10 +2620,10 @@
         <v>0.46</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="GE2" t="n">
         <v>0.45</v>
@@ -2821,16 +2641,16 @@
         <v>0.45</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="GN2" t="n">
         <v>0.44</v>
@@ -2854,10 +2674,10 @@
         <v>0.44</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="GW2" t="n">
         <v>0.43</v>
@@ -2893,34 +2713,34 @@
         <v>0.43</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="HN2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="HP2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="HR2" t="n">
         <v>0.41</v>
@@ -2929,13 +2749,13 @@
         <v>0.41</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="HW2" t="n">
         <v>0.4</v>
@@ -2956,19 +2776,19 @@
         <v>0.4</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="IH2" t="n">
         <v>0.39</v>
@@ -3022,7 +2842,7 @@
         <v>0.38</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="IZ2" t="n">
         <v>0.37</v>
@@ -3055,106 +2875,106 @@
         <v>0.37</v>
       </c>
       <c r="JJ2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="KB2" t="n">
         <v>0.36</v>
       </c>
-      <c r="JK2" t="n">
+      <c r="KC2" t="n">
         <v>0.36</v>
       </c>
-      <c r="JL2" t="n">
+      <c r="KD2" t="n">
         <v>0.36</v>
       </c>
-      <c r="JM2" t="n">
+      <c r="KE2" t="n">
         <v>0.36</v>
       </c>
-      <c r="JN2" t="n">
+      <c r="KF2" t="n">
         <v>0.36</v>
       </c>
-      <c r="JO2" t="n">
+      <c r="KG2" t="n">
         <v>0.36</v>
       </c>
-      <c r="JP2" t="n">
+      <c r="KH2" t="n">
         <v>0.36</v>
       </c>
-      <c r="JQ2" t="n">
+      <c r="KI2" t="n">
         <v>0.36</v>
       </c>
-      <c r="JR2" t="n">
+      <c r="KJ2" t="n">
         <v>0.36</v>
       </c>
-      <c r="JS2" t="n">
+      <c r="KK2" t="n">
         <v>0.36</v>
       </c>
-      <c r="JT2" t="n">
+      <c r="KL2" t="n">
         <v>0.36</v>
       </c>
-      <c r="JU2" t="n">
+      <c r="KM2" t="n">
         <v>0.36</v>
       </c>
-      <c r="JV2" t="n">
+      <c r="KN2" t="n">
         <v>0.36</v>
       </c>
-      <c r="JW2" t="n">
+      <c r="KO2" t="n">
         <v>0.36</v>
       </c>
-      <c r="JX2" t="n">
+      <c r="KP2" t="n">
         <v>0.36</v>
       </c>
-      <c r="JY2" t="n">
+      <c r="KQ2" t="n">
         <v>0.36</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>0.35</v>
       </c>
       <c r="KR2" t="n">
         <v>0.35</v>
@@ -3187,154 +3007,46 @@
         <v>0.35</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="LH2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="LL2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.34</v>
+        <v>0.29</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
